--- a/Altium/JLCPCB 0805 Capacitors.DbLib.xlsx
+++ b/Altium/JLCPCB 0805 Capacitors.DbLib.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3500" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3875" uniqueCount="197">
   <si>
     <t>Comment</t>
   </si>
@@ -592,6 +592,18 @@
   </si>
   <si>
     <t>Passives.SchLib</t>
+  </si>
+  <si>
+    <t>Dielectric</t>
+  </si>
+  <si>
+    <t>C0G</t>
+  </si>
+  <si>
+    <t>X7R</t>
+  </si>
+  <si>
+    <t>X5R</t>
   </si>
 </sst>
 </file>
@@ -637,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -648,15 +660,16 @@
     <col min="3" max="3" width="14.28515625" customWidth="true"/>
     <col min="4" max="4" width="6.28515625" customWidth="true"/>
     <col min="5" max="5" width="9.85546875" customWidth="true"/>
-    <col min="6" max="6" width="8" customWidth="true"/>
-    <col min="7" max="7" width="36.28515625" customWidth="true"/>
-    <col min="8" max="8" width="26.28515625" customWidth="true"/>
-    <col min="9" max="9" width="10" customWidth="true"/>
-    <col min="10" max="10" width="21.7109375" customWidth="true"/>
-    <col min="11" max="11" width="10.5703125" customWidth="true"/>
-    <col min="12" max="12" width="12.85546875" customWidth="true"/>
-    <col min="13" max="13" width="14.85546875" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="9.5703125" customWidth="true"/>
+    <col min="7" max="7" width="8" customWidth="true"/>
+    <col min="8" max="8" width="36.28515625" customWidth="true"/>
+    <col min="9" max="9" width="26.28515625" customWidth="true"/>
+    <col min="10" max="10" width="10" customWidth="true"/>
+    <col min="11" max="11" width="21.7109375" customWidth="true"/>
+    <col min="12" max="12" width="10.5703125" customWidth="true"/>
+    <col min="13" max="13" width="12.85546875" customWidth="true"/>
+    <col min="14" max="14" width="14.85546875" customWidth="true"/>
+    <col min="15" max="15" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -676,30 +689,33 @@
         <v>94</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>166</v>
       </c>
     </row>
@@ -720,30 +736,33 @@
         <v>96</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L2" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N2" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -764,30 +783,33 @@
         <v>96</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L3" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N3" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -808,30 +830,33 @@
         <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L4" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N4" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -852,30 +877,33 @@
         <v>96</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L5" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N5" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -896,30 +924,33 @@
         <v>95</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L6" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N6" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -940,30 +971,33 @@
         <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L7" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N7" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -984,30 +1018,33 @@
         <v>95</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L8" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N8" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1028,30 +1065,33 @@
         <v>96</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L9" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N9" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1072,30 +1112,33 @@
         <v>95</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L10" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N10" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1116,30 +1159,33 @@
         <v>95</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L11" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N11" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1160,30 +1206,33 @@
         <v>95</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J12" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L12" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N12" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O12" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1204,30 +1253,33 @@
         <v>95</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L13" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N13" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O13" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1248,30 +1300,33 @@
         <v>95</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L14" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N14" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1292,30 +1347,33 @@
         <v>95</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L15" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N15" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O15" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1336,30 +1394,33 @@
         <v>95</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L16" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N16" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O16" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1380,30 +1441,33 @@
         <v>95</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="I17" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L17" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N17" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1424,30 +1488,33 @@
         <v>95</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L18" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N18" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1468,30 +1535,33 @@
         <v>95</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J19" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L19" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N19" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1512,30 +1582,33 @@
         <v>95</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L20" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N20" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1556,30 +1629,33 @@
         <v>95</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L21" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N21" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1600,30 +1676,33 @@
         <v>95</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L22" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N22" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1644,30 +1723,33 @@
         <v>95</v>
       </c>
       <c r="F23" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="I23" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L23" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N23" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1688,30 +1770,33 @@
         <v>97</v>
       </c>
       <c r="F24" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="I24" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L24" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N24" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" s="0" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1732,30 +1817,33 @@
         <v>97</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="H25" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="I25" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="J25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="L25" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N25" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" s="0" t="s">
         <v>192</v>
       </c>
     </row>
